--- a/docs/BDD/dictionnaire_de_données.xlsx
+++ b/docs/BDD/dictionnaire_de_données.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="142">
   <si>
     <t xml:space="preserve">Entity</t>
   </si>
@@ -192,6 +192,12 @@
   </si>
   <si>
     <t xml:space="preserve">Float</t>
+  </si>
+  <si>
+    <t xml:space="preserve">image_path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemin de l’image</t>
   </si>
   <si>
     <t xml:space="preserve">inter</t>
@@ -1047,14 +1053,14 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K50" activeCellId="0" sqref="K50"/>
+      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="17.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="32.15"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="57.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="57.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="20.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="12.71"/>
@@ -1502,108 +1508,106 @@
       <c r="J19" s="35"/>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B20" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="C20" s="37" t="s">
+      <c r="C20" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="34"/>
+      <c r="F20" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G20" s="33"/>
+      <c r="H20" s="33"/>
+      <c r="I20" s="33"/>
+      <c r="J20" s="35"/>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B21" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="D21" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="37" t="s">
+      <c r="E21" s="38"/>
+      <c r="F21" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G20" s="37"/>
-      <c r="H20" s="37"/>
-      <c r="I20" s="37"/>
-      <c r="J20" s="39"/>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28" t="s">
-        <v>59</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="29" t="s">
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="39"/>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="B22" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="29" t="s">
+      <c r="E22" s="30"/>
+      <c r="F22" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="31" t="s">
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="36" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C22" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="38" t="s">
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C23" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="37" t="s">
+      <c r="E23" s="34"/>
+      <c r="F23" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="37"/>
-      <c r="H22" s="37"/>
-      <c r="I22" s="37"/>
-      <c r="J22" s="39" t="s">
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="35" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E23" s="30"/>
-      <c r="F23" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="31" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="36" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24" s="37" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D24" s="38" t="s">
         <v>18</v>
@@ -1615,151 +1619,153 @@
       <c r="G24" s="37"/>
       <c r="H24" s="37"/>
       <c r="I24" s="37"/>
-      <c r="J24" s="39" t="s">
-        <v>23</v>
-      </c>
+      <c r="J24" s="39"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="40" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>70</v>
-      </c>
-      <c r="C25" s="41" t="s">
-        <v>71</v>
-      </c>
-      <c r="D25" s="41" t="s">
+      <c r="A25" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="41"/>
+      <c r="E25" s="30"/>
       <c r="F25" s="29" t="s">
         <v>14</v>
       </c>
       <c r="G25" s="29"/>
       <c r="H25" s="29"/>
       <c r="I25" s="29"/>
-      <c r="J25" s="31"/>
+      <c r="J25" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="D26" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="34"/>
+      <c r="F26" s="33" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="35"/>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="C27" s="37" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="38"/>
+      <c r="F27" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="40" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C28" s="41" t="s">
         <v>73</v>
       </c>
-      <c r="D26" s="43" t="s">
+      <c r="D28" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E26" s="43"/>
-      <c r="F26" s="37" t="s">
+      <c r="E28" s="41"/>
+      <c r="F28" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G26" s="37"/>
-      <c r="H26" s="37"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="39"/>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="40" t="s">
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="31"/>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="B29" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="C29" s="43" t="s">
         <v>75</v>
       </c>
-      <c r="C27" s="41" t="s">
+      <c r="D29" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="37"/>
+      <c r="H29" s="37"/>
+      <c r="I29" s="37"/>
+      <c r="J29" s="39"/>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="40" t="s">
         <v>76</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="B30" s="41" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="29" t="s">
+      <c r="E30" s="41"/>
+      <c r="F30" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="31"/>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B28" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="15"/>
-      <c r="F28" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="35"/>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C29" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="15"/>
-      <c r="F29" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="35"/>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C30" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="D30" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="15"/>
-      <c r="F30" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="35"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="31"/>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A31" s="44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D31" s="15" t="s">
         <v>13</v>
@@ -1775,13 +1781,13 @@
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D32" s="15" t="s">
         <v>13</v>
@@ -1797,13 +1803,13 @@
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A33" s="44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D33" s="15" t="s">
         <v>13</v>
@@ -1819,16 +1825,16 @@
     </row>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="17" t="s">
@@ -1841,16 +1847,16 @@
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A35" s="44" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="E35" s="15"/>
       <c r="F35" s="17" t="s">
@@ -1862,63 +1868,61 @@
       <c r="J35" s="35"/>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C36" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="D36" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="E36" s="43"/>
-      <c r="F36" s="37" t="s">
+      <c r="A36" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="15"/>
+      <c r="F36" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G36" s="37"/>
-      <c r="H36" s="37"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="39"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="35"/>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="B37" s="41" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="D37" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="29" t="s">
+      <c r="A37" s="44" t="s">
+        <v>76</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" s="15"/>
+      <c r="F37" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G37" s="29"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17"/>
+      <c r="I37" s="17"/>
+      <c r="J37" s="35"/>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="44" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>101</v>
+        <v>18</v>
       </c>
       <c r="E38" s="15"/>
       <c r="F38" s="17" t="s">
@@ -1930,61 +1934,63 @@
       <c r="J38" s="35"/>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="44" t="s">
+      <c r="A39" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C39" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" s="15" t="s">
-        <v>103</v>
-      </c>
-      <c r="D39" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="E39" s="15"/>
-      <c r="F39" s="17" t="s">
+      <c r="D39" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" s="43"/>
+      <c r="F39" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
-      <c r="I39" s="17"/>
-      <c r="J39" s="35"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="37"/>
+      <c r="J39" s="39"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="B40" s="15" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="D40" s="15" t="s">
+      <c r="A40" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="B40" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D40" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E40" s="15"/>
-      <c r="F40" s="17" t="s">
+      <c r="E40" s="41"/>
+      <c r="F40" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
-      <c r="I40" s="17"/>
-      <c r="J40" s="35"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="29"/>
+      <c r="I40" s="29"/>
+      <c r="J40" s="31" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A41" s="44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="E41" s="15"/>
       <c r="F41" s="17" t="s">
@@ -1997,16 +2003,16 @@
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A42" s="44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>41</v>
+        <v>103</v>
       </c>
       <c r="E42" s="15"/>
       <c r="F42" s="17" t="s">
@@ -2019,16 +2025,16 @@
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A43" s="44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="E43" s="15"/>
       <c r="F43" s="17" t="s">
@@ -2041,13 +2047,13 @@
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="44" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="D44" s="15" t="s">
         <v>41</v>
@@ -2062,63 +2068,61 @@
       <c r="J44" s="35"/>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A45" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="D45" s="43" t="s">
+      <c r="A45" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D45" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="E45" s="43"/>
-      <c r="F45" s="37" t="s">
+      <c r="E45" s="15"/>
+      <c r="F45" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G45" s="37"/>
-      <c r="H45" s="37"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="39"/>
+      <c r="G45" s="17"/>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="35"/>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40" t="s">
-        <v>116</v>
-      </c>
-      <c r="B46" s="41" t="s">
-        <v>117</v>
-      </c>
-      <c r="C46" s="41" t="s">
-        <v>118</v>
-      </c>
-      <c r="D46" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="29" t="s">
+      <c r="A46" s="44" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="D46" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E46" s="15"/>
+      <c r="F46" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G46" s="29"/>
-      <c r="H46" s="29"/>
-      <c r="I46" s="29"/>
-      <c r="J46" s="31" t="s">
-        <v>15</v>
-      </c>
+      <c r="G46" s="17"/>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="35"/>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="44" t="s">
-        <v>116</v>
+        <v>98</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>101</v>
+        <v>41</v>
       </c>
       <c r="E47" s="15"/>
       <c r="F47" s="17" t="s">
@@ -2130,218 +2134,250 @@
       <c r="J47" s="35"/>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A48" s="44" t="s">
+      <c r="A48" s="42" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="B48" s="15" t="s">
+      <c r="C48" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="D48" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="E48" s="43"/>
+      <c r="F48" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G48" s="37"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="37"/>
+      <c r="J48" s="39"/>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A49" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B49" s="41" t="s">
+        <v>119</v>
+      </c>
+      <c r="C49" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="41"/>
+      <c r="F49" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G49" s="29"/>
+      <c r="H49" s="29"/>
+      <c r="I49" s="29"/>
+      <c r="J49" s="31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A50" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B50" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="C48" s="15" t="s">
+      <c r="C50" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="D48" s="15" t="s">
+      <c r="D50" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E50" s="15"/>
+      <c r="F50" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="35"/>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A51" s="44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B51" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="E48" s="15"/>
-      <c r="F48" s="17" t="s">
+      <c r="C51" s="15" t="s">
+        <v>124</v>
+      </c>
+      <c r="D51" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51" s="15"/>
+      <c r="F51" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G48" s="17"/>
-      <c r="H48" s="17"/>
-      <c r="I48" s="17"/>
-      <c r="J48" s="35"/>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="42" t="s">
-        <v>116</v>
-      </c>
-      <c r="B49" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="C49" s="43" t="s">
+      <c r="G51" s="17"/>
+      <c r="H51" s="17"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="35"/>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="42" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="43" t="s">
+        <v>126</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="D52" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="D49" s="43" t="s">
-        <v>123</v>
-      </c>
-      <c r="E49" s="43"/>
-      <c r="F49" s="37" t="s">
+      <c r="E52" s="43"/>
+      <c r="F52" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="G49" s="37"/>
-      <c r="H49" s="37"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="39"/>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="45" t="s">
-        <v>126</v>
-      </c>
-      <c r="B50" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="46" t="s">
+      <c r="G52" s="37"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="37"/>
+      <c r="J52" s="39"/>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="45" t="s">
         <v>128</v>
       </c>
-      <c r="D50" s="46" t="s">
+      <c r="B53" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="C53" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="D53" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="E50" s="46"/>
-      <c r="F50" s="47" t="s">
+      <c r="E53" s="46"/>
+      <c r="F53" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="G50" s="47"/>
-      <c r="H50" s="47"/>
-      <c r="I50" s="47"/>
-      <c r="J50" s="48"/>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="40" t="s">
-        <v>129</v>
-      </c>
-      <c r="B51" s="41" t="s">
-        <v>130</v>
-      </c>
-      <c r="C51" s="41" t="s">
+      <c r="G53" s="47"/>
+      <c r="H53" s="47"/>
+      <c r="I53" s="47"/>
+      <c r="J53" s="48"/>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="40" t="s">
         <v>131</v>
       </c>
-      <c r="D51" s="41" t="s">
+      <c r="B54" s="41" t="s">
+        <v>132</v>
+      </c>
+      <c r="C54" s="41" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="29" t="s">
+      <c r="E54" s="41"/>
+      <c r="F54" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="31" t="s">
+      <c r="G54" s="29"/>
+      <c r="H54" s="29"/>
+      <c r="I54" s="29"/>
+      <c r="J54" s="31" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B52" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>133</v>
-      </c>
-      <c r="D52" s="15" t="s">
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E52" s="15"/>
-      <c r="F52" s="17" t="s">
+      <c r="E55" s="15"/>
+      <c r="F55" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="17"/>
-      <c r="H52" s="17"/>
-      <c r="I52" s="17"/>
-      <c r="J52" s="35"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B53" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="D53" s="49" t="s">
+      <c r="G55" s="17"/>
+      <c r="H55" s="17"/>
+      <c r="I55" s="17"/>
+      <c r="J55" s="35"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B56" s="17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="D56" s="49" t="s">
         <v>18</v>
       </c>
-      <c r="E53" s="49"/>
-      <c r="F53" s="17" t="s">
+      <c r="E56" s="49"/>
+      <c r="F56" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G53" s="17"/>
-      <c r="H53" s="17"/>
-      <c r="I53" s="17"/>
-      <c r="J53" s="35"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="44" t="s">
-        <v>129</v>
-      </c>
-      <c r="B54" s="17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C54" s="17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D54" s="49" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="49"/>
-      <c r="F54" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" s="17"/>
-      <c r="H54" s="17"/>
-      <c r="I54" s="17"/>
-      <c r="J54" s="35"/>
-    </row>
-    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="B55" s="37" t="s">
-        <v>138</v>
-      </c>
-      <c r="C55" s="37" t="s">
-        <v>139</v>
-      </c>
-      <c r="D55" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="E55" s="38"/>
-      <c r="F55" s="37" t="s">
-        <v>14</v>
-      </c>
-      <c r="G55" s="37"/>
-      <c r="H55" s="37"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="39"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="17"/>
-      <c r="B56" s="17"/>
-      <c r="C56" s="17"/>
-      <c r="D56" s="49"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="17"/>
       <c r="G56" s="17"/>
       <c r="H56" s="17"/>
       <c r="I56" s="17"/>
-      <c r="J56" s="17"/>
+      <c r="J56" s="35"/>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="17"/>
-      <c r="B57" s="17"/>
-      <c r="C57" s="17"/>
-      <c r="D57" s="49"/>
+      <c r="A57" s="44" t="s">
+        <v>131</v>
+      </c>
+      <c r="B57" s="17" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="49" t="s">
+        <v>18</v>
+      </c>
       <c r="E57" s="49"/>
-      <c r="F57" s="17"/>
+      <c r="F57" s="17" t="s">
+        <v>14</v>
+      </c>
       <c r="G57" s="17"/>
       <c r="H57" s="17"/>
       <c r="I57" s="17"/>
-      <c r="J57" s="17"/>
+      <c r="J57" s="35"/>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A58" s="17"/>
-      <c r="B58" s="17"/>
-      <c r="C58" s="17"/>
-      <c r="D58" s="49"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+      <c r="A58" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="37" t="s">
+        <v>140</v>
+      </c>
+      <c r="C58" s="37" t="s">
+        <v>141</v>
+      </c>
+      <c r="D58" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="38"/>
+      <c r="F58" s="37" t="s">
+        <v>14</v>
+      </c>
+      <c r="G58" s="37"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="37"/>
+      <c r="J58" s="39"/>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="17"/>
@@ -13347,9 +13383,42 @@
       <c r="I975" s="17"/>
       <c r="J975" s="17"/>
     </row>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="976" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A976" s="17"/>
+      <c r="B976" s="17"/>
+      <c r="C976" s="17"/>
+      <c r="D976" s="49"/>
+      <c r="E976" s="49"/>
+      <c r="F976" s="17"/>
+      <c r="G976" s="17"/>
+      <c r="H976" s="17"/>
+      <c r="I976" s="17"/>
+      <c r="J976" s="17"/>
+    </row>
+    <row r="977" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A977" s="17"/>
+      <c r="B977" s="17"/>
+      <c r="C977" s="17"/>
+      <c r="D977" s="49"/>
+      <c r="E977" s="49"/>
+      <c r="F977" s="17"/>
+      <c r="G977" s="17"/>
+      <c r="H977" s="17"/>
+      <c r="I977" s="17"/>
+      <c r="J977" s="17"/>
+    </row>
+    <row r="978" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A978" s="17"/>
+      <c r="B978" s="17"/>
+      <c r="C978" s="17"/>
+      <c r="D978" s="49"/>
+      <c r="E978" s="49"/>
+      <c r="F978" s="17"/>
+      <c r="G978" s="17"/>
+      <c r="H978" s="17"/>
+      <c r="I978" s="17"/>
+      <c r="J978" s="17"/>
+    </row>
     <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -13399,7 +13468,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6953125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.70703125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
